--- a/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/DM001_ユーザ一覧画面.xlsx
+++ b/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/DM001_ユーザ一覧画面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1335" windowWidth="23715" windowHeight="9480" activeTab="4"/>
+    <workbookView xWindow="210" yWindow="1335" windowWidth="23715" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -3956,6 +3956,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4031,12 +4037,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4077,6 +4077,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>268941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1703294" y="2498912"/>
+          <a:ext cx="8897471" cy="4078941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>要見直し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4124,7 +4184,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6581,7 +6641,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -8264,6 +8324,7 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8275,9 +8336,7 @@
   </sheetPr>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8340,7 +8399,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -10951,7 +11010,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -12939,9 +12998,6 @@
     <row r="59" spans="1:52" s="6" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
     <mergeCell ref="A4:AL4"/>
     <mergeCell ref="AM4:AZ4"/>
     <mergeCell ref="AX1:AZ1"/>
@@ -12958,6 +13014,9 @@
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:AF3"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -12981,7 +13040,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:M3"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -16647,7 +16706,7 @@
   </sheetPr>
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:E4"/>
@@ -16726,7 +16785,7 @@
         <v>4</v>
       </c>
       <c r="AY1" s="248"/>
-      <c r="AZ1" s="282"/>
+      <c r="AZ1" s="284"/>
     </row>
     <row r="2" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="242"/>
@@ -16866,52 +16925,52 @@
       <c r="F4" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
-      <c r="M4" s="307"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="307"/>
-      <c r="V4" s="307"/>
-      <c r="W4" s="307"/>
-      <c r="X4" s="307"/>
-      <c r="Y4" s="307"/>
-      <c r="Z4" s="307"/>
-      <c r="AA4" s="307"/>
-      <c r="AB4" s="307"/>
-      <c r="AC4" s="307"/>
-      <c r="AD4" s="307"/>
-      <c r="AE4" s="307"/>
-      <c r="AF4" s="307"/>
-      <c r="AG4" s="307"/>
-      <c r="AH4" s="307"/>
-      <c r="AI4" s="307"/>
-      <c r="AJ4" s="307"/>
-      <c r="AK4" s="307"/>
-      <c r="AL4" s="307"/>
-      <c r="AM4" s="307"/>
-      <c r="AN4" s="307"/>
-      <c r="AO4" s="307"/>
-      <c r="AP4" s="307"/>
-      <c r="AQ4" s="307"/>
-      <c r="AR4" s="307"/>
-      <c r="AS4" s="307"/>
-      <c r="AT4" s="307"/>
-      <c r="AU4" s="307"/>
-      <c r="AV4" s="307"/>
-      <c r="AW4" s="307"/>
-      <c r="AX4" s="307"/>
-      <c r="AY4" s="307"/>
-      <c r="AZ4" s="308"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="282"/>
+      <c r="T4" s="282"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="282"/>
+      <c r="AA4" s="282"/>
+      <c r="AB4" s="282"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="282"/>
+      <c r="AE4" s="282"/>
+      <c r="AF4" s="282"/>
+      <c r="AG4" s="282"/>
+      <c r="AH4" s="282"/>
+      <c r="AI4" s="282"/>
+      <c r="AJ4" s="282"/>
+      <c r="AK4" s="282"/>
+      <c r="AL4" s="282"/>
+      <c r="AM4" s="282"/>
+      <c r="AN4" s="282"/>
+      <c r="AO4" s="282"/>
+      <c r="AP4" s="282"/>
+      <c r="AQ4" s="282"/>
+      <c r="AR4" s="282"/>
+      <c r="AS4" s="282"/>
+      <c r="AT4" s="282"/>
+      <c r="AU4" s="282"/>
+      <c r="AV4" s="282"/>
+      <c r="AW4" s="282"/>
+      <c r="AX4" s="282"/>
+      <c r="AY4" s="282"/>
+      <c r="AZ4" s="283"/>
     </row>
     <row r="5" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A5" s="117"/>
@@ -19683,6 +19742,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:AZ4"/>
@@ -19696,12 +19761,6 @@
     <mergeCell ref="AG2:AL3"/>
     <mergeCell ref="AM2:AR3"/>
     <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -19930,13 +19989,13 @@
       <c r="AZ3" s="233"/>
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="286" t="s">
+      <c r="A4" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="287"/>
+      <c r="B4" s="286"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="289"/>
       <c r="F4" s="133" t="s">
         <v>68</v>
       </c>
@@ -19972,22 +20031,22 @@
       <c r="AJ4" s="133"/>
       <c r="AK4" s="133"/>
       <c r="AL4" s="133"/>
-      <c r="AM4" s="283" t="s">
+      <c r="AM4" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN4" s="284"/>
-      <c r="AO4" s="284"/>
-      <c r="AP4" s="284"/>
-      <c r="AQ4" s="284"/>
-      <c r="AR4" s="284"/>
-      <c r="AS4" s="284"/>
-      <c r="AT4" s="284"/>
-      <c r="AU4" s="284"/>
-      <c r="AV4" s="284"/>
-      <c r="AW4" s="284"/>
-      <c r="AX4" s="284"/>
-      <c r="AY4" s="284"/>
-      <c r="AZ4" s="285"/>
+      <c r="AN4" s="286"/>
+      <c r="AO4" s="286"/>
+      <c r="AP4" s="286"/>
+      <c r="AQ4" s="286"/>
+      <c r="AR4" s="286"/>
+      <c r="AS4" s="286"/>
+      <c r="AT4" s="286"/>
+      <c r="AU4" s="286"/>
+      <c r="AV4" s="286"/>
+      <c r="AW4" s="286"/>
+      <c r="AX4" s="286"/>
+      <c r="AY4" s="286"/>
+      <c r="AZ4" s="287"/>
     </row>
     <row r="5" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A5" s="134"/>
@@ -20320,13 +20379,13 @@
       <c r="AZ9" s="142"/>
     </row>
     <row r="10" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="287"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="286"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="289"/>
       <c r="F10" s="133" t="s">
         <v>73</v>
       </c>
@@ -20362,22 +20421,22 @@
       <c r="AJ10" s="133"/>
       <c r="AK10" s="133"/>
       <c r="AL10" s="133"/>
-      <c r="AM10" s="283" t="s">
+      <c r="AM10" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN10" s="284"/>
-      <c r="AO10" s="284"/>
-      <c r="AP10" s="284"/>
-      <c r="AQ10" s="284"/>
-      <c r="AR10" s="284"/>
-      <c r="AS10" s="284"/>
-      <c r="AT10" s="284"/>
-      <c r="AU10" s="284"/>
-      <c r="AV10" s="284"/>
-      <c r="AW10" s="284"/>
-      <c r="AX10" s="284"/>
-      <c r="AY10" s="284"/>
-      <c r="AZ10" s="285"/>
+      <c r="AN10" s="286"/>
+      <c r="AO10" s="286"/>
+      <c r="AP10" s="286"/>
+      <c r="AQ10" s="286"/>
+      <c r="AR10" s="286"/>
+      <c r="AS10" s="286"/>
+      <c r="AT10" s="286"/>
+      <c r="AU10" s="286"/>
+      <c r="AV10" s="286"/>
+      <c r="AW10" s="286"/>
+      <c r="AX10" s="286"/>
+      <c r="AY10" s="286"/>
+      <c r="AZ10" s="287"/>
     </row>
     <row r="11" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A11" s="134"/>
@@ -21642,13 +21701,13 @@
       <c r="AZ28" s="142"/>
     </row>
     <row r="29" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="286" t="s">
+      <c r="A29" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="284"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="287"/>
+      <c r="B29" s="286"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="289"/>
       <c r="F29" s="133" t="s">
         <v>111</v>
       </c>
@@ -21684,22 +21743,22 @@
       <c r="AJ29" s="133"/>
       <c r="AK29" s="133"/>
       <c r="AL29" s="133"/>
-      <c r="AM29" s="283" t="s">
+      <c r="AM29" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN29" s="284"/>
-      <c r="AO29" s="284"/>
-      <c r="AP29" s="284"/>
-      <c r="AQ29" s="284"/>
-      <c r="AR29" s="284"/>
-      <c r="AS29" s="284"/>
-      <c r="AT29" s="284"/>
-      <c r="AU29" s="284"/>
-      <c r="AV29" s="284"/>
-      <c r="AW29" s="284"/>
-      <c r="AX29" s="284"/>
-      <c r="AY29" s="284"/>
-      <c r="AZ29" s="285"/>
+      <c r="AN29" s="286"/>
+      <c r="AO29" s="286"/>
+      <c r="AP29" s="286"/>
+      <c r="AQ29" s="286"/>
+      <c r="AR29" s="286"/>
+      <c r="AS29" s="286"/>
+      <c r="AT29" s="286"/>
+      <c r="AU29" s="286"/>
+      <c r="AV29" s="286"/>
+      <c r="AW29" s="286"/>
+      <c r="AX29" s="286"/>
+      <c r="AY29" s="286"/>
+      <c r="AZ29" s="287"/>
     </row>
     <row r="30" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A30" s="134"/>
@@ -22312,13 +22371,13 @@
       <c r="AZ38" s="142"/>
     </row>
     <row r="39" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="286" t="s">
+      <c r="A39" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="284"/>
-      <c r="C39" s="284"/>
-      <c r="D39" s="284"/>
-      <c r="E39" s="287"/>
+      <c r="B39" s="286"/>
+      <c r="C39" s="286"/>
+      <c r="D39" s="286"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="133" t="s">
         <v>76</v>
       </c>
@@ -22354,22 +22413,22 @@
       <c r="AJ39" s="133"/>
       <c r="AK39" s="133"/>
       <c r="AL39" s="133"/>
-      <c r="AM39" s="283" t="s">
+      <c r="AM39" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN39" s="284"/>
-      <c r="AO39" s="284"/>
-      <c r="AP39" s="284"/>
-      <c r="AQ39" s="284"/>
-      <c r="AR39" s="284"/>
-      <c r="AS39" s="284"/>
-      <c r="AT39" s="284"/>
-      <c r="AU39" s="284"/>
-      <c r="AV39" s="284"/>
-      <c r="AW39" s="284"/>
-      <c r="AX39" s="284"/>
-      <c r="AY39" s="284"/>
-      <c r="AZ39" s="285"/>
+      <c r="AN39" s="286"/>
+      <c r="AO39" s="286"/>
+      <c r="AP39" s="286"/>
+      <c r="AQ39" s="286"/>
+      <c r="AR39" s="286"/>
+      <c r="AS39" s="286"/>
+      <c r="AT39" s="286"/>
+      <c r="AU39" s="286"/>
+      <c r="AV39" s="286"/>
+      <c r="AW39" s="286"/>
+      <c r="AX39" s="286"/>
+      <c r="AY39" s="286"/>
+      <c r="AZ39" s="287"/>
     </row>
     <row r="40" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A40" s="134"/>
@@ -23416,13 +23475,13 @@
       <c r="AZ57" s="142"/>
     </row>
     <row r="58" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A58" s="286" t="s">
+      <c r="A58" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="284"/>
-      <c r="C58" s="284"/>
-      <c r="D58" s="284"/>
-      <c r="E58" s="287"/>
+      <c r="B58" s="286"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="286"/>
+      <c r="E58" s="289"/>
       <c r="F58" s="133" t="s">
         <v>78</v>
       </c>
@@ -23458,22 +23517,22 @@
       <c r="AJ58" s="133"/>
       <c r="AK58" s="133"/>
       <c r="AL58" s="133"/>
-      <c r="AM58" s="283" t="s">
+      <c r="AM58" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN58" s="284"/>
-      <c r="AO58" s="284"/>
-      <c r="AP58" s="284"/>
-      <c r="AQ58" s="284"/>
-      <c r="AR58" s="284"/>
-      <c r="AS58" s="284"/>
-      <c r="AT58" s="284"/>
-      <c r="AU58" s="284"/>
-      <c r="AV58" s="284"/>
-      <c r="AW58" s="284"/>
-      <c r="AX58" s="284"/>
-      <c r="AY58" s="284"/>
-      <c r="AZ58" s="285"/>
+      <c r="AN58" s="286"/>
+      <c r="AO58" s="286"/>
+      <c r="AP58" s="286"/>
+      <c r="AQ58" s="286"/>
+      <c r="AR58" s="286"/>
+      <c r="AS58" s="286"/>
+      <c r="AT58" s="286"/>
+      <c r="AU58" s="286"/>
+      <c r="AV58" s="286"/>
+      <c r="AW58" s="286"/>
+      <c r="AX58" s="286"/>
+      <c r="AY58" s="286"/>
+      <c r="AZ58" s="287"/>
     </row>
     <row r="59" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A59" s="134"/>
@@ -23964,13 +24023,13 @@
       <c r="AZ66" s="142"/>
     </row>
     <row r="67" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A67" s="286" t="s">
+      <c r="A67" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="284"/>
-      <c r="C67" s="284"/>
-      <c r="D67" s="284"/>
-      <c r="E67" s="287"/>
+      <c r="B67" s="286"/>
+      <c r="C67" s="286"/>
+      <c r="D67" s="286"/>
+      <c r="E67" s="289"/>
       <c r="F67" s="133" t="s">
         <v>220</v>
       </c>
@@ -24006,22 +24065,22 @@
       <c r="AJ67" s="133"/>
       <c r="AK67" s="133"/>
       <c r="AL67" s="133"/>
-      <c r="AM67" s="283" t="s">
+      <c r="AM67" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN67" s="284"/>
-      <c r="AO67" s="284"/>
-      <c r="AP67" s="284"/>
-      <c r="AQ67" s="284"/>
-      <c r="AR67" s="284"/>
-      <c r="AS67" s="284"/>
-      <c r="AT67" s="284"/>
-      <c r="AU67" s="284"/>
-      <c r="AV67" s="284"/>
-      <c r="AW67" s="284"/>
-      <c r="AX67" s="284"/>
-      <c r="AY67" s="284"/>
-      <c r="AZ67" s="285"/>
+      <c r="AN67" s="286"/>
+      <c r="AO67" s="286"/>
+      <c r="AP67" s="286"/>
+      <c r="AQ67" s="286"/>
+      <c r="AR67" s="286"/>
+      <c r="AS67" s="286"/>
+      <c r="AT67" s="286"/>
+      <c r="AU67" s="286"/>
+      <c r="AV67" s="286"/>
+      <c r="AW67" s="286"/>
+      <c r="AX67" s="286"/>
+      <c r="AY67" s="286"/>
+      <c r="AZ67" s="287"/>
     </row>
     <row r="68" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A68" s="134"/>
@@ -24512,13 +24571,13 @@
       <c r="AZ75" s="142"/>
     </row>
     <row r="76" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A76" s="286" t="s">
+      <c r="A76" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="284"/>
-      <c r="C76" s="284"/>
-      <c r="D76" s="284"/>
-      <c r="E76" s="287"/>
+      <c r="B76" s="286"/>
+      <c r="C76" s="286"/>
+      <c r="D76" s="286"/>
+      <c r="E76" s="289"/>
       <c r="F76" s="133" t="s">
         <v>84</v>
       </c>
@@ -24554,22 +24613,22 @@
       <c r="AJ76" s="133"/>
       <c r="AK76" s="133"/>
       <c r="AL76" s="133"/>
-      <c r="AM76" s="283" t="s">
+      <c r="AM76" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="AN76" s="284"/>
-      <c r="AO76" s="284"/>
-      <c r="AP76" s="284"/>
-      <c r="AQ76" s="284"/>
-      <c r="AR76" s="284"/>
-      <c r="AS76" s="284"/>
-      <c r="AT76" s="284"/>
-      <c r="AU76" s="284"/>
-      <c r="AV76" s="284"/>
-      <c r="AW76" s="284"/>
-      <c r="AX76" s="284"/>
-      <c r="AY76" s="284"/>
-      <c r="AZ76" s="285"/>
+      <c r="AN76" s="286"/>
+      <c r="AO76" s="286"/>
+      <c r="AP76" s="286"/>
+      <c r="AQ76" s="286"/>
+      <c r="AR76" s="286"/>
+      <c r="AS76" s="286"/>
+      <c r="AT76" s="286"/>
+      <c r="AU76" s="286"/>
+      <c r="AV76" s="286"/>
+      <c r="AW76" s="286"/>
+      <c r="AX76" s="286"/>
+      <c r="AY76" s="286"/>
+      <c r="AZ76" s="287"/>
     </row>
     <row r="77" spans="1:52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A77" s="134"/>
@@ -28241,186 +28300,186 @@
     </row>
     <row r="7" spans="1:52" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="294"/>
-      <c r="D7" s="300" t="s">
+      <c r="C7" s="296"/>
+      <c r="D7" s="302" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="301"/>
-      <c r="M7" s="301"/>
-      <c r="N7" s="301"/>
-      <c r="O7" s="301"/>
-      <c r="P7" s="301"/>
-      <c r="Q7" s="301"/>
-      <c r="R7" s="301"/>
-      <c r="S7" s="301"/>
-      <c r="T7" s="301"/>
-      <c r="U7" s="301"/>
-      <c r="V7" s="301"/>
-      <c r="W7" s="301"/>
-      <c r="X7" s="301"/>
-      <c r="Y7" s="302"/>
-      <c r="Z7" s="292" t="s">
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
+      <c r="O7" s="303"/>
+      <c r="P7" s="303"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="303"/>
+      <c r="U7" s="303"/>
+      <c r="V7" s="303"/>
+      <c r="W7" s="303"/>
+      <c r="X7" s="303"/>
+      <c r="Y7" s="304"/>
+      <c r="Z7" s="294" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" s="293"/>
-      <c r="AB7" s="293"/>
-      <c r="AC7" s="294"/>
-      <c r="AD7" s="292" t="s">
+      <c r="AA7" s="295"/>
+      <c r="AB7" s="295"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="294" t="s">
         <v>100</v>
       </c>
-      <c r="AE7" s="293"/>
-      <c r="AF7" s="293"/>
-      <c r="AG7" s="293"/>
-      <c r="AH7" s="293"/>
-      <c r="AI7" s="293"/>
-      <c r="AJ7" s="293"/>
-      <c r="AK7" s="293"/>
-      <c r="AL7" s="293"/>
-      <c r="AM7" s="293"/>
-      <c r="AN7" s="293"/>
-      <c r="AO7" s="293"/>
-      <c r="AP7" s="293"/>
-      <c r="AQ7" s="293"/>
-      <c r="AR7" s="293"/>
-      <c r="AS7" s="293"/>
-      <c r="AT7" s="293"/>
-      <c r="AU7" s="293"/>
-      <c r="AV7" s="293"/>
-      <c r="AW7" s="293"/>
-      <c r="AX7" s="293"/>
-      <c r="AY7" s="294"/>
+      <c r="AE7" s="295"/>
+      <c r="AF7" s="295"/>
+      <c r="AG7" s="295"/>
+      <c r="AH7" s="295"/>
+      <c r="AI7" s="295"/>
+      <c r="AJ7" s="295"/>
+      <c r="AK7" s="295"/>
+      <c r="AL7" s="295"/>
+      <c r="AM7" s="295"/>
+      <c r="AN7" s="295"/>
+      <c r="AO7" s="295"/>
+      <c r="AP7" s="295"/>
+      <c r="AQ7" s="295"/>
+      <c r="AR7" s="295"/>
+      <c r="AS7" s="295"/>
+      <c r="AT7" s="295"/>
+      <c r="AU7" s="295"/>
+      <c r="AV7" s="295"/>
+      <c r="AW7" s="295"/>
+      <c r="AX7" s="295"/>
+      <c r="AY7" s="296"/>
       <c r="AZ7" s="27"/>
     </row>
     <row r="8" spans="1:52" s="24" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="296"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="296"/>
-      <c r="L8" s="296"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="296"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="296"/>
-      <c r="Q8" s="296"/>
-      <c r="R8" s="296"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="296"/>
-      <c r="V8" s="296"/>
-      <c r="W8" s="296"/>
-      <c r="X8" s="296"/>
-      <c r="Y8" s="297"/>
-      <c r="Z8" s="295"/>
-      <c r="AA8" s="296"/>
-      <c r="AB8" s="296"/>
-      <c r="AC8" s="297"/>
-      <c r="AD8" s="295"/>
-      <c r="AE8" s="296"/>
-      <c r="AF8" s="296"/>
-      <c r="AG8" s="296"/>
-      <c r="AH8" s="296"/>
-      <c r="AI8" s="296"/>
-      <c r="AJ8" s="296"/>
-      <c r="AK8" s="296"/>
-      <c r="AL8" s="296"/>
-      <c r="AM8" s="296"/>
-      <c r="AN8" s="296"/>
-      <c r="AO8" s="296"/>
-      <c r="AP8" s="296"/>
-      <c r="AQ8" s="296"/>
-      <c r="AR8" s="296"/>
-      <c r="AS8" s="296"/>
-      <c r="AT8" s="296"/>
-      <c r="AU8" s="296"/>
-      <c r="AV8" s="296"/>
-      <c r="AW8" s="296"/>
-      <c r="AX8" s="296"/>
-      <c r="AY8" s="297"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="298"/>
+      <c r="J8" s="298"/>
+      <c r="K8" s="298"/>
+      <c r="L8" s="298"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="298"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="298"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="298"/>
+      <c r="X8" s="298"/>
+      <c r="Y8" s="299"/>
+      <c r="Z8" s="297"/>
+      <c r="AA8" s="298"/>
+      <c r="AB8" s="298"/>
+      <c r="AC8" s="299"/>
+      <c r="AD8" s="297"/>
+      <c r="AE8" s="298"/>
+      <c r="AF8" s="298"/>
+      <c r="AG8" s="298"/>
+      <c r="AH8" s="298"/>
+      <c r="AI8" s="298"/>
+      <c r="AJ8" s="298"/>
+      <c r="AK8" s="298"/>
+      <c r="AL8" s="298"/>
+      <c r="AM8" s="298"/>
+      <c r="AN8" s="298"/>
+      <c r="AO8" s="298"/>
+      <c r="AP8" s="298"/>
+      <c r="AQ8" s="298"/>
+      <c r="AR8" s="298"/>
+      <c r="AS8" s="298"/>
+      <c r="AT8" s="298"/>
+      <c r="AU8" s="298"/>
+      <c r="AV8" s="298"/>
+      <c r="AW8" s="298"/>
+      <c r="AX8" s="298"/>
+      <c r="AY8" s="299"/>
       <c r="AZ8" s="92"/>
     </row>
     <row r="9" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="298">
+      <c r="B9" s="300">
         <v>1</v>
       </c>
-      <c r="C9" s="299"/>
-      <c r="D9" s="295" t="s">
+      <c r="C9" s="301"/>
+      <c r="D9" s="297" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="296"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="296"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="296"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="296"/>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="296"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="296"/>
-      <c r="Y9" s="297"/>
-      <c r="Z9" s="295" t="s">
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="298"/>
+      <c r="L9" s="298"/>
+      <c r="M9" s="298"/>
+      <c r="N9" s="298"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="298"/>
+      <c r="Q9" s="298"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="298"/>
+      <c r="V9" s="298"/>
+      <c r="W9" s="298"/>
+      <c r="X9" s="298"/>
+      <c r="Y9" s="299"/>
+      <c r="Z9" s="297" t="s">
         <v>209</v>
       </c>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="297"/>
-      <c r="AD9" s="295" t="s">
+      <c r="AA9" s="298"/>
+      <c r="AB9" s="298"/>
+      <c r="AC9" s="299"/>
+      <c r="AD9" s="297" t="s">
         <v>210</v>
       </c>
-      <c r="AE9" s="296"/>
-      <c r="AF9" s="296"/>
-      <c r="AG9" s="296"/>
-      <c r="AH9" s="296"/>
-      <c r="AI9" s="296"/>
-      <c r="AJ9" s="296"/>
-      <c r="AK9" s="296"/>
-      <c r="AL9" s="296"/>
-      <c r="AM9" s="296"/>
-      <c r="AN9" s="296"/>
-      <c r="AO9" s="296"/>
-      <c r="AP9" s="296"/>
-      <c r="AQ9" s="296"/>
-      <c r="AR9" s="296"/>
-      <c r="AS9" s="296"/>
-      <c r="AT9" s="296"/>
-      <c r="AU9" s="296"/>
-      <c r="AV9" s="296"/>
-      <c r="AW9" s="296"/>
-      <c r="AX9" s="296"/>
-      <c r="AY9" s="297"/>
+      <c r="AE9" s="298"/>
+      <c r="AF9" s="298"/>
+      <c r="AG9" s="298"/>
+      <c r="AH9" s="298"/>
+      <c r="AI9" s="298"/>
+      <c r="AJ9" s="298"/>
+      <c r="AK9" s="298"/>
+      <c r="AL9" s="298"/>
+      <c r="AM9" s="298"/>
+      <c r="AN9" s="298"/>
+      <c r="AO9" s="298"/>
+      <c r="AP9" s="298"/>
+      <c r="AQ9" s="298"/>
+      <c r="AR9" s="298"/>
+      <c r="AS9" s="298"/>
+      <c r="AT9" s="298"/>
+      <c r="AU9" s="298"/>
+      <c r="AV9" s="298"/>
+      <c r="AW9" s="298"/>
+      <c r="AX9" s="298"/>
+      <c r="AY9" s="299"/>
       <c r="AZ9" s="92"/>
     </row>
     <row r="10" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="290"/>
-      <c r="C10" s="291"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="293"/>
       <c r="D10" s="192"/>
       <c r="E10" s="193"/>
       <c r="F10" s="193"/>
@@ -28473,8 +28532,8 @@
     </row>
     <row r="11" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="290"/>
-      <c r="C11" s="291"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="293"/>
       <c r="D11" s="192"/>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
@@ -28527,8 +28586,8 @@
     </row>
     <row r="12" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="291"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="293"/>
       <c r="D12" s="192"/>
       <c r="E12" s="193"/>
       <c r="F12" s="193"/>
@@ -28581,8 +28640,8 @@
     </row>
     <row r="13" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="25"/>
-      <c r="B13" s="290"/>
-      <c r="C13" s="291"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="293"/>
       <c r="D13" s="192"/>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
@@ -28635,8 +28694,8 @@
     </row>
     <row r="14" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="25"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="291"/>
+      <c r="B14" s="292"/>
+      <c r="C14" s="293"/>
       <c r="D14" s="192"/>
       <c r="E14" s="193"/>
       <c r="F14" s="193"/>
@@ -28689,8 +28748,8 @@
     </row>
     <row r="15" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="25"/>
-      <c r="B15" s="290"/>
-      <c r="C15" s="291"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="293"/>
       <c r="D15" s="192"/>
       <c r="E15" s="193"/>
       <c r="F15" s="193"/>
@@ -28743,8 +28802,8 @@
     </row>
     <row r="16" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="290"/>
-      <c r="C16" s="291"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="293"/>
       <c r="D16" s="192"/>
       <c r="E16" s="193"/>
       <c r="F16" s="193"/>
@@ -28797,8 +28856,8 @@
     </row>
     <row r="17" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="290"/>
-      <c r="C17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="293"/>
       <c r="D17" s="192"/>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
@@ -28851,8 +28910,8 @@
     </row>
     <row r="18" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="290"/>
-      <c r="C18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="293"/>
       <c r="D18" s="192"/>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
@@ -28905,8 +28964,8 @@
     </row>
     <row r="19" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="290"/>
-      <c r="C19" s="291"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="293"/>
       <c r="D19" s="192"/>
       <c r="E19" s="193"/>
       <c r="F19" s="193"/>
@@ -28959,8 +29018,8 @@
     </row>
     <row r="20" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="25"/>
-      <c r="B20" s="290"/>
-      <c r="C20" s="291"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="293"/>
       <c r="D20" s="192"/>
       <c r="E20" s="193"/>
       <c r="F20" s="193"/>
@@ -29013,8 +29072,8 @@
     </row>
     <row r="21" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="290"/>
-      <c r="C21" s="291"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="293"/>
       <c r="D21" s="192"/>
       <c r="E21" s="193"/>
       <c r="F21" s="193"/>
@@ -29067,8 +29126,8 @@
     </row>
     <row r="22" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="290"/>
-      <c r="C22" s="291"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="293"/>
       <c r="D22" s="192"/>
       <c r="E22" s="193"/>
       <c r="F22" s="193"/>
@@ -29121,8 +29180,8 @@
     </row>
     <row r="23" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="290"/>
-      <c r="C23" s="291"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="293"/>
       <c r="D23" s="192"/>
       <c r="E23" s="193"/>
       <c r="F23" s="193"/>
@@ -29175,8 +29234,8 @@
     </row>
     <row r="24" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="290"/>
-      <c r="C24" s="291"/>
+      <c r="B24" s="292"/>
+      <c r="C24" s="293"/>
       <c r="D24" s="192"/>
       <c r="E24" s="193"/>
       <c r="F24" s="193"/>
@@ -29229,8 +29288,8 @@
     </row>
     <row r="25" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="290"/>
-      <c r="C25" s="291"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="293"/>
       <c r="D25" s="192"/>
       <c r="E25" s="193"/>
       <c r="F25" s="193"/>
@@ -29283,8 +29342,8 @@
     </row>
     <row r="26" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="290"/>
-      <c r="C26" s="291"/>
+      <c r="B26" s="292"/>
+      <c r="C26" s="293"/>
       <c r="D26" s="192"/>
       <c r="E26" s="193"/>
       <c r="F26" s="193"/>
@@ -29337,8 +29396,8 @@
     </row>
     <row r="27" spans="1:52" s="24" customFormat="1" ht="31.5" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="288"/>
-      <c r="C27" s="289"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="291"/>
       <c r="D27" s="210"/>
       <c r="E27" s="211"/>
       <c r="F27" s="211"/>
@@ -29778,30 +29837,30 @@
         <v>215</v>
       </c>
       <c r="B4" s="259"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="304" t="s">
+      <c r="C4" s="305"/>
+      <c r="D4" s="306" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="308"/>
       <c r="G4" s="249" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="259"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="304" t="s">
+      <c r="I4" s="305"/>
+      <c r="J4" s="306" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="305"/>
-      <c r="L4" s="305"/>
-      <c r="M4" s="305"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="307"/>
       <c r="N4" s="249" t="s">
         <v>104</v>
       </c>
       <c r="O4" s="259"/>
       <c r="P4" s="259"/>
       <c r="Q4" s="259"/>
-      <c r="R4" s="303"/>
+      <c r="R4" s="305"/>
       <c r="S4" s="170" t="s">
         <v>156</v>
       </c>

--- a/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/DM001_ユーザ一覧画面.xlsx
+++ b/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/DM001_ユーザ一覧画面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1335" windowWidth="23715" windowHeight="9480"/>
+    <workbookView xWindow="210" yWindow="1335" windowWidth="23715" windowHeight="9480" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,9 @@
             <charset val="128"/>
           </rPr>
           <t>※複数選択する場合は「、」区切りで記載
-半角、全角、全半角
-数値、英字、記号、英数
-カタカナ、ひらがな
+半角、全角、数値、英字、半角英数、
 メールアドレス、電話番号
+記号以外
 etc...</t>
         </r>
       </text>
@@ -175,8 +174,93 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>panasonic</author>
+  </authors>
+  <commentList>
+    <comment ref="T11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>○：常に値が存在する
+△：条件によっては値が存在しない</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>○：常に参照する
+△：条件によっては参照しない</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>○：常に条件に含める
+△：条件によっては条件に含めない</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>○：常に取得項目に含める
+△：条件によっては取得項目に含めない</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>○：常に並び順に含める
+△：条件によっては並び順に含めない</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="270">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -907,9 +991,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>データ型</t>
-  </si>
-  <si>
     <t>表示有無</t>
   </si>
   <si>
@@ -1110,10 +1191,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面で未入力の場合は未設定</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1176,16 +1253,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>【出力情報】</t>
-    <rPh sb="1" eb="3">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1457,13 +1524,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全角</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>役割が複数存在する場合は/区切りで全て表示</t>
     <rPh sb="17" eb="18">
       <t>スベ</t>
@@ -1489,16 +1549,6 @@
   </si>
   <si>
     <t>テキスト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>半角、英数</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エイスウ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1669,24 +1719,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>検証内容検証内容（エラー条件）</t>
-    <rPh sb="0" eb="2">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>検索結果が0件。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>error.006</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2268,47 +2304,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>検索処理呼び出し</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索処理呼び出し用の情報生成</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>4.</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2318,19 +2313,6 @@
   </si>
   <si>
     <t>5.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索結果を反映</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンエイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2377,6 +2359,90 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>error006</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検証内容（エラー条件）</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>役割が複数存在する場合は/区切りで全て表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索処理の実行パラメータを生成</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>【取得情報】</t>
+    <rPh sb="1" eb="3">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>半角英数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>記号以外</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>取得した情報を反映</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3352,7 +3418,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4180,14 +4246,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4260,6 +4326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -6805,7 +6874,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6933,7 +7002,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="222" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -7309,7 +7378,7 @@
       <c r="I9" s="194"/>
       <c r="J9" s="195"/>
       <c r="K9" s="206" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L9" s="207"/>
       <c r="M9" s="207"/>
@@ -8492,14 +8561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:C4"/>
@@ -8627,7 +8696,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -8709,35 +8778,35 @@
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="255" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B4" s="260"/>
       <c r="C4" s="306"/>
       <c r="D4" s="307" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E4" s="308"/>
       <c r="F4" s="309"/>
       <c r="G4" s="250" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H4" s="260"/>
       <c r="I4" s="306"/>
       <c r="J4" s="307" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K4" s="308"/>
       <c r="L4" s="308"/>
       <c r="M4" s="308"/>
       <c r="N4" s="250" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O4" s="260"/>
       <c r="P4" s="260"/>
       <c r="Q4" s="260"/>
       <c r="R4" s="306"/>
       <c r="S4" s="170" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T4" s="170"/>
       <c r="U4" s="170"/>
@@ -8830,7 +8899,7 @@
     <row r="6" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="44"/>
       <c r="B6" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="94"/>
@@ -8887,7 +8956,7 @@
       <c r="A7" s="44"/>
       <c r="B7" s="94"/>
       <c r="C7" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94"/>
@@ -9050,7 +9119,7 @@
     <row r="10" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="44"/>
       <c r="B10" s="94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -9107,7 +9176,7 @@
       <c r="A11" s="44"/>
       <c r="B11" s="12"/>
       <c r="C11" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
@@ -9118,7 +9187,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
       <c r="L11" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="96"/>
@@ -9128,11 +9197,11 @@
       <c r="R11" s="96"/>
       <c r="S11" s="96"/>
       <c r="T11" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U11" s="96"/>
       <c r="V11" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W11" s="96"/>
       <c r="X11" s="96"/>
@@ -9169,7 +9238,7 @@
       <c r="A12" s="44"/>
       <c r="B12" s="12"/>
       <c r="C12" s="168" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="172"/>
       <c r="E12" s="172"/>
@@ -9190,11 +9259,11 @@
       <c r="R12" s="172"/>
       <c r="S12" s="172"/>
       <c r="T12" s="168" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="U12" s="172"/>
       <c r="V12" s="168" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W12" s="172"/>
       <c r="X12" s="172"/>
@@ -9252,11 +9321,11 @@
       <c r="R13" s="172"/>
       <c r="S13" s="172"/>
       <c r="T13" s="168" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="U13" s="172"/>
       <c r="V13" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W13" s="172"/>
       <c r="X13" s="172"/>
@@ -9346,7 +9415,7 @@
     <row r="15" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="44"/>
       <c r="B15" s="94" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -9403,7 +9472,7 @@
       <c r="A16" s="44"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
@@ -9414,7 +9483,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
       <c r="L16" s="95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M16" s="96"/>
       <c r="N16" s="96"/>
@@ -9424,11 +9493,11 @@
       <c r="R16" s="96"/>
       <c r="S16" s="96"/>
       <c r="T16" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U16" s="96"/>
       <c r="V16" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W16" s="96"/>
       <c r="X16" s="96"/>
@@ -9465,7 +9534,7 @@
       <c r="A17" s="44"/>
       <c r="B17" s="94"/>
       <c r="C17" s="168" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="172"/>
       <c r="E17" s="172"/>
@@ -9476,7 +9545,7 @@
       <c r="J17" s="172"/>
       <c r="K17" s="172"/>
       <c r="L17" s="168" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M17" s="172"/>
       <c r="N17" s="172"/>
@@ -9486,7 +9555,7 @@
       <c r="R17" s="172"/>
       <c r="S17" s="172"/>
       <c r="T17" s="168" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="U17" s="172"/>
       <c r="V17" s="168"/>
@@ -9525,7 +9594,7 @@
       <c r="A18" s="44"/>
       <c r="B18" s="94"/>
       <c r="C18" s="168" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="172"/>
       <c r="E18" s="172"/>
@@ -9536,7 +9605,7 @@
       <c r="J18" s="172"/>
       <c r="K18" s="172"/>
       <c r="L18" s="168" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M18" s="172"/>
       <c r="N18" s="172"/>
@@ -9546,7 +9615,7 @@
       <c r="R18" s="172"/>
       <c r="S18" s="172"/>
       <c r="T18" s="168" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="U18" s="172"/>
       <c r="V18" s="168"/>
@@ -9638,7 +9707,7 @@
     <row r="20" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="44"/>
       <c r="B20" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="94"/>
       <c r="D20" s="94"/>
@@ -9695,7 +9764,7 @@
       <c r="A21" s="44"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="96"/>
       <c r="E21" s="96"/>
@@ -9714,11 +9783,11 @@
       <c r="R21" s="96"/>
       <c r="S21" s="96"/>
       <c r="T21" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U21" s="96"/>
       <c r="V21" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W21" s="96"/>
       <c r="X21" s="96"/>
@@ -9755,7 +9824,7 @@
       <c r="A22" s="44"/>
       <c r="B22" s="94"/>
       <c r="C22" s="173" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D22" s="174"/>
       <c r="E22" s="174"/>
@@ -9774,11 +9843,11 @@
       <c r="R22" s="174"/>
       <c r="S22" s="174"/>
       <c r="T22" s="168" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="U22" s="172"/>
       <c r="V22" s="173" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W22" s="174"/>
       <c r="X22" s="174"/>
@@ -9815,7 +9884,7 @@
       <c r="A23" s="44"/>
       <c r="B23" s="94"/>
       <c r="C23" s="173" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D23" s="174"/>
       <c r="E23" s="174"/>
@@ -9834,11 +9903,11 @@
       <c r="R23" s="174"/>
       <c r="S23" s="174"/>
       <c r="T23" s="168" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="U23" s="172"/>
       <c r="V23" s="173" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="W23" s="174"/>
       <c r="X23" s="174"/>
@@ -9875,7 +9944,7 @@
       <c r="A24" s="44"/>
       <c r="B24" s="12"/>
       <c r="C24" s="177" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D24" s="178"/>
       <c r="E24" s="178"/>
@@ -9894,7 +9963,7 @@
       <c r="R24" s="178"/>
       <c r="S24" s="178"/>
       <c r="T24" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U24" s="172"/>
       <c r="V24" s="177"/>
@@ -9986,7 +10055,7 @@
     <row r="26" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="44"/>
       <c r="B26" s="94" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -10043,7 +10112,7 @@
       <c r="A27" s="44"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D27" s="96"/>
       <c r="E27" s="96"/>
@@ -10054,7 +10123,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
       <c r="L27" s="95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="96"/>
       <c r="N27" s="96"/>
@@ -10064,7 +10133,7 @@
       <c r="R27" s="96"/>
       <c r="S27" s="96"/>
       <c r="T27" s="95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U27" s="96"/>
       <c r="V27" s="96"/>
@@ -10074,11 +10143,11 @@
       <c r="Z27" s="96"/>
       <c r="AA27" s="97"/>
       <c r="AB27" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC27" s="96"/>
       <c r="AD27" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AE27" s="96"/>
       <c r="AF27" s="96"/>
@@ -10107,7 +10176,7 @@
       <c r="A28" s="44"/>
       <c r="B28" s="12"/>
       <c r="C28" s="168" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28" s="172"/>
       <c r="E28" s="172"/>
@@ -10118,7 +10187,7 @@
       <c r="J28" s="172"/>
       <c r="K28" s="172"/>
       <c r="L28" s="168" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M28" s="172"/>
       <c r="N28" s="172"/>
@@ -10128,7 +10197,7 @@
       <c r="R28" s="172"/>
       <c r="S28" s="172"/>
       <c r="T28" s="168" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U28" s="172"/>
       <c r="V28" s="172"/>
@@ -10138,7 +10207,7 @@
       <c r="Z28" s="172"/>
       <c r="AA28" s="169"/>
       <c r="AB28" s="168" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AC28" s="169"/>
       <c r="AD28" s="172"/>
@@ -10169,7 +10238,7 @@
       <c r="A29" s="44"/>
       <c r="B29" s="11"/>
       <c r="C29" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="172"/>
       <c r="E29" s="172"/>
@@ -10190,7 +10259,7 @@
       <c r="R29" s="172"/>
       <c r="S29" s="172"/>
       <c r="T29" s="168" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="U29" s="172"/>
       <c r="V29" s="172"/>
@@ -10200,7 +10269,7 @@
       <c r="Z29" s="172"/>
       <c r="AA29" s="169"/>
       <c r="AB29" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC29" s="169"/>
       <c r="AD29" s="172"/>
@@ -10231,7 +10300,7 @@
       <c r="A30" s="44"/>
       <c r="B30" s="11"/>
       <c r="C30" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="172"/>
       <c r="E30" s="172"/>
@@ -10242,7 +10311,7 @@
       <c r="J30" s="172"/>
       <c r="K30" s="172"/>
       <c r="L30" s="168" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M30" s="172"/>
       <c r="N30" s="172"/>
@@ -10252,7 +10321,7 @@
       <c r="R30" s="172"/>
       <c r="S30" s="172"/>
       <c r="T30" s="168" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U30" s="172"/>
       <c r="V30" s="172"/>
@@ -10262,7 +10331,7 @@
       <c r="Z30" s="172"/>
       <c r="AA30" s="169"/>
       <c r="AB30" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC30" s="169"/>
       <c r="AD30" s="172"/>
@@ -10293,7 +10362,7 @@
       <c r="A31" s="44"/>
       <c r="B31" s="11"/>
       <c r="C31" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
@@ -10304,7 +10373,7 @@
       <c r="J31" s="172"/>
       <c r="K31" s="172"/>
       <c r="L31" s="168" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M31" s="172"/>
       <c r="N31" s="172"/>
@@ -10314,7 +10383,7 @@
       <c r="R31" s="172"/>
       <c r="S31" s="172"/>
       <c r="T31" s="168" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="U31" s="172"/>
       <c r="V31" s="172"/>
@@ -10324,7 +10393,7 @@
       <c r="Z31" s="172"/>
       <c r="AA31" s="169"/>
       <c r="AB31" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC31" s="169"/>
       <c r="AD31" s="172"/>
@@ -10355,7 +10424,7 @@
       <c r="A32" s="44"/>
       <c r="B32" s="94"/>
       <c r="C32" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="172"/>
       <c r="E32" s="172"/>
@@ -10366,7 +10435,7 @@
       <c r="J32" s="172"/>
       <c r="K32" s="172"/>
       <c r="L32" s="168" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M32" s="172"/>
       <c r="N32" s="172"/>
@@ -10376,7 +10445,7 @@
       <c r="R32" s="172"/>
       <c r="S32" s="172"/>
       <c r="T32" s="168" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U32" s="172"/>
       <c r="V32" s="172"/>
@@ -10386,7 +10455,7 @@
       <c r="Z32" s="172"/>
       <c r="AA32" s="169"/>
       <c r="AB32" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC32" s="169"/>
       <c r="AD32" s="172"/>
@@ -10417,7 +10486,7 @@
       <c r="A33" s="44"/>
       <c r="B33" s="12"/>
       <c r="C33" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="172"/>
       <c r="E33" s="172"/>
@@ -10428,7 +10497,7 @@
       <c r="J33" s="172"/>
       <c r="K33" s="172"/>
       <c r="L33" s="168" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M33" s="172"/>
       <c r="N33" s="172"/>
@@ -10438,7 +10507,7 @@
       <c r="R33" s="172"/>
       <c r="S33" s="172"/>
       <c r="T33" s="168" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U33" s="172"/>
       <c r="V33" s="172"/>
@@ -10448,7 +10517,7 @@
       <c r="Z33" s="172"/>
       <c r="AA33" s="169"/>
       <c r="AB33" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC33" s="169"/>
       <c r="AD33" s="172"/>
@@ -10479,7 +10548,7 @@
       <c r="A34" s="44"/>
       <c r="B34" s="12"/>
       <c r="C34" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="172"/>
       <c r="E34" s="172"/>
@@ -10490,7 +10559,7 @@
       <c r="J34" s="172"/>
       <c r="K34" s="172"/>
       <c r="L34" s="168" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M34" s="172"/>
       <c r="N34" s="172"/>
@@ -10500,7 +10569,7 @@
       <c r="R34" s="172"/>
       <c r="S34" s="172"/>
       <c r="T34" s="168" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U34" s="172"/>
       <c r="V34" s="172"/>
@@ -10510,7 +10579,7 @@
       <c r="Z34" s="172"/>
       <c r="AA34" s="169"/>
       <c r="AB34" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC34" s="169"/>
       <c r="AD34" s="172"/>
@@ -10541,7 +10610,7 @@
       <c r="A35" s="44"/>
       <c r="B35" s="12"/>
       <c r="C35" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="172"/>
       <c r="E35" s="172"/>
@@ -10552,7 +10621,7 @@
       <c r="J35" s="172"/>
       <c r="K35" s="172"/>
       <c r="L35" s="168" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M35" s="172"/>
       <c r="N35" s="172"/>
@@ -10562,7 +10631,7 @@
       <c r="R35" s="172"/>
       <c r="S35" s="172"/>
       <c r="T35" s="168" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="U35" s="172"/>
       <c r="V35" s="172"/>
@@ -10572,7 +10641,7 @@
       <c r="Z35" s="172"/>
       <c r="AA35" s="169"/>
       <c r="AB35" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC35" s="169"/>
       <c r="AD35" s="172"/>
@@ -10603,7 +10672,7 @@
       <c r="A36" s="44"/>
       <c r="B36" s="12"/>
       <c r="C36" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="172"/>
       <c r="E36" s="172"/>
@@ -10614,7 +10683,7 @@
       <c r="J36" s="172"/>
       <c r="K36" s="172"/>
       <c r="L36" s="168" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M36" s="172"/>
       <c r="N36" s="172"/>
@@ -10624,7 +10693,7 @@
       <c r="R36" s="172"/>
       <c r="S36" s="172"/>
       <c r="T36" s="168" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U36" s="172"/>
       <c r="V36" s="172"/>
@@ -10634,7 +10703,7 @@
       <c r="Z36" s="172"/>
       <c r="AA36" s="169"/>
       <c r="AB36" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC36" s="169"/>
       <c r="AD36" s="172"/>
@@ -10665,7 +10734,7 @@
       <c r="A37" s="44"/>
       <c r="B37" s="12"/>
       <c r="C37" s="168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="172"/>
       <c r="E37" s="172"/>
@@ -10676,7 +10745,7 @@
       <c r="J37" s="172"/>
       <c r="K37" s="172"/>
       <c r="L37" s="168" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M37" s="172"/>
       <c r="N37" s="172"/>
@@ -10686,7 +10755,7 @@
       <c r="R37" s="172"/>
       <c r="S37" s="172"/>
       <c r="T37" s="168" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U37" s="172"/>
       <c r="V37" s="172"/>
@@ -10696,7 +10765,7 @@
       <c r="Z37" s="172"/>
       <c r="AA37" s="169"/>
       <c r="AB37" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC37" s="169"/>
       <c r="AD37" s="172"/>
@@ -10727,7 +10796,7 @@
       <c r="A38" s="44"/>
       <c r="B38" s="12"/>
       <c r="C38" s="168" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="172"/>
       <c r="E38" s="172"/>
@@ -10738,7 +10807,7 @@
       <c r="J38" s="172"/>
       <c r="K38" s="172"/>
       <c r="L38" s="168" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M38" s="172"/>
       <c r="N38" s="172"/>
@@ -10748,7 +10817,7 @@
       <c r="R38" s="172"/>
       <c r="S38" s="172"/>
       <c r="T38" s="168" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U38" s="172"/>
       <c r="V38" s="172"/>
@@ -10758,11 +10827,11 @@
       <c r="Z38" s="172"/>
       <c r="AA38" s="169"/>
       <c r="AB38" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC38" s="169"/>
       <c r="AD38" s="172" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AE38" s="172"/>
       <c r="AF38" s="172"/>
@@ -10791,7 +10860,7 @@
       <c r="A39" s="44"/>
       <c r="B39" s="12"/>
       <c r="C39" s="168" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D39" s="172"/>
       <c r="E39" s="172"/>
@@ -10802,7 +10871,7 @@
       <c r="J39" s="172"/>
       <c r="K39" s="172"/>
       <c r="L39" s="168" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M39" s="172"/>
       <c r="N39" s="172"/>
@@ -10812,7 +10881,7 @@
       <c r="R39" s="172"/>
       <c r="S39" s="172"/>
       <c r="T39" s="168" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U39" s="172"/>
       <c r="V39" s="172"/>
@@ -10822,11 +10891,11 @@
       <c r="Z39" s="172"/>
       <c r="AA39" s="169"/>
       <c r="AB39" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC39" s="169"/>
       <c r="AD39" s="172" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AE39" s="172"/>
       <c r="AF39" s="172"/>
@@ -10855,7 +10924,7 @@
       <c r="A40" s="44"/>
       <c r="B40" s="12"/>
       <c r="C40" s="168" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D40" s="172"/>
       <c r="E40" s="172"/>
@@ -10866,7 +10935,7 @@
       <c r="J40" s="172"/>
       <c r="K40" s="172"/>
       <c r="L40" s="168" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M40" s="172"/>
       <c r="N40" s="172"/>
@@ -10876,7 +10945,7 @@
       <c r="R40" s="172"/>
       <c r="S40" s="172"/>
       <c r="T40" s="168" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U40" s="172"/>
       <c r="V40" s="172"/>
@@ -10886,11 +10955,11 @@
       <c r="Z40" s="172"/>
       <c r="AA40" s="169"/>
       <c r="AB40" s="168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AC40" s="169"/>
       <c r="AD40" s="172" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AE40" s="172"/>
       <c r="AF40" s="172"/>
@@ -10972,7 +11041,7 @@
     <row r="42" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A42" s="44"/>
       <c r="B42" s="94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -11029,7 +11098,7 @@
       <c r="A43" s="44"/>
       <c r="B43" s="12"/>
       <c r="C43" s="95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="95" t="s">
         <v>15</v>
@@ -11042,7 +11111,7 @@
       <c r="J43" s="96"/>
       <c r="K43" s="96"/>
       <c r="L43" s="95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M43" s="96"/>
       <c r="N43" s="96"/>
@@ -11052,16 +11121,16 @@
       <c r="R43" s="96"/>
       <c r="S43" s="96"/>
       <c r="T43" s="95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U43" s="96"/>
       <c r="V43" s="96"/>
       <c r="W43" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X43" s="97"/>
       <c r="Y43" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z43" s="96"/>
       <c r="AA43" s="96"/>
@@ -11098,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="168" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="172"/>
       <c r="F44" s="172"/>
@@ -11108,7 +11177,7 @@
       <c r="J44" s="172"/>
       <c r="K44" s="172"/>
       <c r="L44" s="168" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M44" s="172"/>
       <c r="N44" s="172"/>
@@ -11118,12 +11187,12 @@
       <c r="R44" s="172"/>
       <c r="S44" s="172"/>
       <c r="T44" s="168" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U44" s="172"/>
       <c r="V44" s="172"/>
       <c r="W44" s="168" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="X44" s="169"/>
       <c r="Y44" s="168"/>
@@ -11618,6 +11687,7 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11817,7 +11887,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -11899,14 +11969,14 @@
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="255" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="251"/>
       <c r="C4" s="251"/>
       <c r="D4" s="251"/>
       <c r="E4" s="251"/>
       <c r="F4" s="256" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G4" s="257"/>
       <c r="H4" s="257"/>
@@ -14428,7 +14498,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -16291,9 +16361,6 @@
     <row r="59" spans="1:52" s="6" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
     <mergeCell ref="A4:AL4"/>
     <mergeCell ref="AM4:AZ4"/>
     <mergeCell ref="AX1:AZ1"/>
@@ -16310,6 +16377,9 @@
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:AF3"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -16460,7 +16530,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -16561,7 +16631,7 @@
       <c r="L4" s="278"/>
       <c r="M4" s="279"/>
       <c r="N4" s="122" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O4" s="123"/>
       <c r="P4" s="123"/>
@@ -16569,7 +16639,7 @@
       <c r="R4" s="123"/>
       <c r="S4" s="123"/>
       <c r="T4" s="119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U4" s="121"/>
       <c r="V4" s="121"/>
@@ -16579,7 +16649,7 @@
       <c r="Z4" s="121"/>
       <c r="AA4" s="120"/>
       <c r="AB4" s="119" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AC4" s="121"/>
       <c r="AD4" s="121"/>
@@ -16631,11 +16701,11 @@
       <c r="R5" s="126"/>
       <c r="S5" s="126"/>
       <c r="T5" s="266" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U5" s="267"/>
       <c r="V5" s="266" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W5" s="268"/>
       <c r="X5" s="268"/>
@@ -16643,7 +16713,7 @@
       <c r="Z5" s="268"/>
       <c r="AA5" s="267"/>
       <c r="AB5" s="266" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC5" s="267"/>
       <c r="AD5" s="266" t="s">
@@ -16651,7 +16721,7 @@
       </c>
       <c r="AE5" s="267"/>
       <c r="AF5" s="266" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="AG5" s="268"/>
       <c r="AH5" s="268"/>
@@ -16659,7 +16729,7 @@
       <c r="AJ5" s="268"/>
       <c r="AK5" s="267"/>
       <c r="AL5" s="266" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AM5" s="268"/>
       <c r="AN5" s="268"/>
@@ -16795,7 +16865,7 @@
         <v/>
       </c>
       <c r="B8" s="50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="54"/>
@@ -16864,13 +16934,13 @@
       <c r="H9" s="51"/>
       <c r="I9" s="52"/>
       <c r="J9" s="50" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
       <c r="M9" s="57"/>
       <c r="N9" s="51" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="56"/>
@@ -16878,11 +16948,11 @@
       <c r="R9" s="56"/>
       <c r="S9" s="56"/>
       <c r="T9" s="262" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U9" s="263"/>
       <c r="V9" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
@@ -16890,15 +16960,15 @@
       <c r="Z9" s="51"/>
       <c r="AA9" s="52"/>
       <c r="AB9" s="262" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AC9" s="263"/>
       <c r="AD9" s="262">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="263"/>
       <c r="AF9" s="50" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="AG9" s="51"/>
       <c r="AH9" s="51"/>
@@ -16906,7 +16976,7 @@
       <c r="AJ9" s="51"/>
       <c r="AK9" s="52"/>
       <c r="AL9" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM9" s="51"/>
       <c r="AN9" s="51"/>
@@ -16939,13 +17009,13 @@
       <c r="H10" s="51"/>
       <c r="I10" s="52"/>
       <c r="J10" s="50" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
       <c r="M10" s="57"/>
       <c r="N10" s="51" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="56"/>
@@ -16953,11 +17023,11 @@
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
       <c r="T10" s="262" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U10" s="263"/>
       <c r="V10" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
@@ -16965,7 +17035,7 @@
       <c r="Z10" s="51"/>
       <c r="AA10" s="52"/>
       <c r="AB10" s="262" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AC10" s="263"/>
       <c r="AD10" s="262">
@@ -16973,7 +17043,7 @@
       </c>
       <c r="AE10" s="263"/>
       <c r="AF10" s="50" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="AG10" s="51"/>
       <c r="AH10" s="51"/>
@@ -16981,7 +17051,7 @@
       <c r="AJ10" s="51"/>
       <c r="AK10" s="52"/>
       <c r="AL10" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM10" s="51"/>
       <c r="AN10" s="51"/>
@@ -17004,7 +17074,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
@@ -17020,7 +17090,7 @@
       <c r="L11" s="56"/>
       <c r="M11" s="57"/>
       <c r="N11" s="51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O11" s="51"/>
       <c r="P11" s="56"/>
@@ -17028,11 +17098,11 @@
       <c r="R11" s="56"/>
       <c r="S11" s="56"/>
       <c r="T11" s="262" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U11" s="263"/>
       <c r="V11" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
@@ -17040,15 +17110,15 @@
       <c r="Z11" s="51"/>
       <c r="AA11" s="52"/>
       <c r="AB11" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC11" s="263"/>
       <c r="AD11" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE11" s="263"/>
       <c r="AF11" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG11" s="51"/>
       <c r="AH11" s="51"/>
@@ -17056,7 +17126,7 @@
       <c r="AJ11" s="51"/>
       <c r="AK11" s="52"/>
       <c r="AL11" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM11" s="51"/>
       <c r="AN11" s="51"/>
@@ -17095,7 +17165,7 @@
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="51" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O12" s="51"/>
       <c r="P12" s="56"/>
@@ -17103,11 +17173,11 @@
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
       <c r="T12" s="262" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U12" s="263"/>
       <c r="V12" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
@@ -17115,15 +17185,15 @@
       <c r="Z12" s="51"/>
       <c r="AA12" s="52"/>
       <c r="AB12" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC12" s="263"/>
       <c r="AD12" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE12" s="263"/>
       <c r="AF12" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG12" s="51"/>
       <c r="AH12" s="51"/>
@@ -17131,7 +17201,7 @@
       <c r="AJ12" s="51"/>
       <c r="AK12" s="52"/>
       <c r="AL12" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM12" s="51"/>
       <c r="AN12" s="51"/>
@@ -17170,7 +17240,7 @@
       <c r="L13" s="56"/>
       <c r="M13" s="57"/>
       <c r="N13" s="51" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O13" s="51"/>
       <c r="P13" s="56"/>
@@ -17178,11 +17248,11 @@
       <c r="R13" s="56"/>
       <c r="S13" s="56"/>
       <c r="T13" s="262" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U13" s="263"/>
       <c r="V13" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
@@ -17190,15 +17260,15 @@
       <c r="Z13" s="51"/>
       <c r="AA13" s="52"/>
       <c r="AB13" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC13" s="263"/>
       <c r="AD13" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE13" s="263"/>
       <c r="AF13" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG13" s="51"/>
       <c r="AH13" s="51"/>
@@ -17206,7 +17276,7 @@
       <c r="AJ13" s="51"/>
       <c r="AK13" s="52"/>
       <c r="AL13" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM13" s="51"/>
       <c r="AN13" s="51"/>
@@ -17343,7 +17413,7 @@
         <v/>
       </c>
       <c r="B16" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="54"/>
@@ -17402,7 +17472,7 @@
         <v/>
       </c>
       <c r="B17" s="50" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -17575,7 +17645,7 @@
         <v/>
       </c>
       <c r="B20" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
@@ -17709,7 +17779,7 @@
       <c r="L22" s="51"/>
       <c r="M22" s="52"/>
       <c r="N22" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O22" s="51"/>
       <c r="P22" s="56"/>
@@ -17717,11 +17787,11 @@
       <c r="R22" s="56"/>
       <c r="S22" s="56"/>
       <c r="T22" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U22" s="263"/>
       <c r="V22" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
@@ -17729,15 +17799,15 @@
       <c r="Z22" s="51"/>
       <c r="AA22" s="52"/>
       <c r="AB22" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC22" s="263"/>
       <c r="AD22" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE22" s="263"/>
       <c r="AF22" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG22" s="51"/>
       <c r="AH22" s="51"/>
@@ -17745,7 +17815,7 @@
       <c r="AJ22" s="51"/>
       <c r="AK22" s="52"/>
       <c r="AL22" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM22" s="51"/>
       <c r="AN22" s="51"/>
@@ -17785,7 +17855,7 @@
       <c r="L23" s="56"/>
       <c r="M23" s="57"/>
       <c r="N23" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O23" s="51"/>
       <c r="P23" s="56"/>
@@ -17793,11 +17863,11 @@
       <c r="R23" s="56"/>
       <c r="S23" s="56"/>
       <c r="T23" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U23" s="263"/>
       <c r="V23" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
@@ -17805,15 +17875,15 @@
       <c r="Z23" s="51"/>
       <c r="AA23" s="52"/>
       <c r="AB23" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC23" s="263"/>
       <c r="AD23" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE23" s="263"/>
       <c r="AF23" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG23" s="51"/>
       <c r="AH23" s="51"/>
@@ -17821,7 +17891,7 @@
       <c r="AJ23" s="51"/>
       <c r="AK23" s="52"/>
       <c r="AL23" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM23" s="51"/>
       <c r="AN23" s="51"/>
@@ -17860,7 +17930,7 @@
       <c r="L24" s="56"/>
       <c r="M24" s="57"/>
       <c r="N24" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O24" s="51"/>
       <c r="P24" s="56"/>
@@ -17868,11 +17938,11 @@
       <c r="R24" s="56"/>
       <c r="S24" s="56"/>
       <c r="T24" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U24" s="263"/>
       <c r="V24" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
@@ -17880,15 +17950,15 @@
       <c r="Z24" s="51"/>
       <c r="AA24" s="52"/>
       <c r="AB24" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC24" s="263"/>
       <c r="AD24" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE24" s="263"/>
       <c r="AF24" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG24" s="51"/>
       <c r="AH24" s="51"/>
@@ -17896,7 +17966,7 @@
       <c r="AJ24" s="51"/>
       <c r="AK24" s="52"/>
       <c r="AL24" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM24" s="51"/>
       <c r="AN24" s="51"/>
@@ -17935,7 +18005,7 @@
       <c r="L25" s="51"/>
       <c r="M25" s="52"/>
       <c r="N25" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O25" s="51"/>
       <c r="P25" s="56"/>
@@ -17943,11 +18013,11 @@
       <c r="R25" s="56"/>
       <c r="S25" s="56"/>
       <c r="T25" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U25" s="263"/>
       <c r="V25" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
@@ -17955,15 +18025,15 @@
       <c r="Z25" s="51"/>
       <c r="AA25" s="52"/>
       <c r="AB25" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC25" s="263"/>
       <c r="AD25" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE25" s="263"/>
       <c r="AF25" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
@@ -17971,7 +18041,7 @@
       <c r="AJ25" s="51"/>
       <c r="AK25" s="52"/>
       <c r="AL25" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM25" s="51"/>
       <c r="AN25" s="51"/>
@@ -17996,7 +18066,7 @@
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -18011,7 +18081,7 @@
       <c r="L26" s="51"/>
       <c r="M26" s="52"/>
       <c r="N26" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O26" s="51"/>
       <c r="P26" s="56"/>
@@ -18019,11 +18089,11 @@
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
       <c r="T26" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U26" s="263"/>
       <c r="V26" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
@@ -18031,15 +18101,15 @@
       <c r="Z26" s="51"/>
       <c r="AA26" s="52"/>
       <c r="AB26" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC26" s="263"/>
       <c r="AD26" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE26" s="263"/>
       <c r="AF26" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG26" s="51"/>
       <c r="AH26" s="51"/>
@@ -18047,7 +18117,7 @@
       <c r="AJ26" s="51"/>
       <c r="AK26" s="52"/>
       <c r="AL26" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM26" s="51"/>
       <c r="AN26" s="51"/>
@@ -18055,7 +18125,7 @@
       <c r="AP26" s="51"/>
       <c r="AQ26" s="52"/>
       <c r="AR26" s="50" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AS26" s="51"/>
       <c r="AT26" s="51"/>
@@ -18074,7 +18144,7 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
@@ -18089,7 +18159,7 @@
       <c r="L27" s="51"/>
       <c r="M27" s="52"/>
       <c r="N27" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O27" s="51"/>
       <c r="P27" s="56"/>
@@ -18097,11 +18167,11 @@
       <c r="R27" s="56"/>
       <c r="S27" s="56"/>
       <c r="T27" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U27" s="263"/>
       <c r="V27" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
@@ -18109,15 +18179,15 @@
       <c r="Z27" s="51"/>
       <c r="AA27" s="52"/>
       <c r="AB27" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC27" s="263"/>
       <c r="AD27" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE27" s="263"/>
       <c r="AF27" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG27" s="51"/>
       <c r="AH27" s="51"/>
@@ -18125,7 +18195,7 @@
       <c r="AJ27" s="51"/>
       <c r="AK27" s="52"/>
       <c r="AL27" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM27" s="51"/>
       <c r="AN27" s="51"/>
@@ -18150,7 +18220,7 @@
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
@@ -18165,7 +18235,7 @@
       <c r="L28" s="51"/>
       <c r="M28" s="52"/>
       <c r="N28" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O28" s="51"/>
       <c r="P28" s="56"/>
@@ -18173,11 +18243,11 @@
       <c r="R28" s="56"/>
       <c r="S28" s="56"/>
       <c r="T28" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U28" s="263"/>
       <c r="V28" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
@@ -18185,15 +18255,15 @@
       <c r="Z28" s="51"/>
       <c r="AA28" s="52"/>
       <c r="AB28" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC28" s="263"/>
       <c r="AD28" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE28" s="263"/>
       <c r="AF28" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG28" s="51"/>
       <c r="AH28" s="51"/>
@@ -18201,7 +18271,7 @@
       <c r="AJ28" s="51"/>
       <c r="AK28" s="52"/>
       <c r="AL28" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM28" s="51"/>
       <c r="AN28" s="51"/>
@@ -18226,7 +18296,7 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="51" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
@@ -18241,7 +18311,7 @@
       <c r="L29" s="51"/>
       <c r="M29" s="52"/>
       <c r="N29" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O29" s="51"/>
       <c r="P29" s="56"/>
@@ -18249,11 +18319,11 @@
       <c r="R29" s="56"/>
       <c r="S29" s="56"/>
       <c r="T29" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U29" s="263"/>
       <c r="V29" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
@@ -18261,15 +18331,15 @@
       <c r="Z29" s="51"/>
       <c r="AA29" s="52"/>
       <c r="AB29" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC29" s="263"/>
       <c r="AD29" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE29" s="263"/>
       <c r="AF29" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG29" s="51"/>
       <c r="AH29" s="51"/>
@@ -18277,7 +18347,7 @@
       <c r="AJ29" s="51"/>
       <c r="AK29" s="52"/>
       <c r="AL29" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM29" s="51"/>
       <c r="AN29" s="51"/>
@@ -18317,7 +18387,7 @@
       <c r="L30" s="51"/>
       <c r="M30" s="52"/>
       <c r="N30" s="51" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O30" s="51"/>
       <c r="P30" s="56"/>
@@ -18325,11 +18395,11 @@
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
       <c r="T30" s="262" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U30" s="263"/>
       <c r="V30" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="W30" s="51"/>
       <c r="X30" s="51"/>
@@ -18337,15 +18407,15 @@
       <c r="Z30" s="51"/>
       <c r="AA30" s="52"/>
       <c r="AB30" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC30" s="263"/>
       <c r="AD30" s="262" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AE30" s="263"/>
       <c r="AF30" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG30" s="51"/>
       <c r="AH30" s="51"/>
@@ -18353,7 +18423,7 @@
       <c r="AJ30" s="51"/>
       <c r="AK30" s="52"/>
       <c r="AL30" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AM30" s="51"/>
       <c r="AN30" s="51"/>
@@ -18361,7 +18431,7 @@
       <c r="AP30" s="51"/>
       <c r="AQ30" s="52"/>
       <c r="AR30" s="50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AS30" s="51"/>
       <c r="AT30" s="51"/>
@@ -19978,10 +20048,10 @@
     </row>
     <row r="59" spans="1:54" ht="13.5" customHeight="1" thickBot="1">
       <c r="A59" s="90" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
@@ -19991,7 +20061,7 @@
       <c r="H59" s="63"/>
       <c r="I59" s="64"/>
       <c r="J59" s="62" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K59" s="63"/>
       <c r="L59" s="63"/>
@@ -20003,11 +20073,11 @@
       <c r="R59" s="65"/>
       <c r="S59" s="65"/>
       <c r="T59" s="264" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="U59" s="265"/>
       <c r="V59" s="62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="W59" s="63"/>
       <c r="X59" s="63"/>
@@ -20015,15 +20085,15 @@
       <c r="Z59" s="63"/>
       <c r="AA59" s="64"/>
       <c r="AB59" s="264" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AC59" s="265"/>
       <c r="AD59" s="264" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AE59" s="265"/>
       <c r="AF59" s="62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG59" s="63"/>
       <c r="AH59" s="63"/>
@@ -20031,7 +20101,7 @@
       <c r="AJ59" s="63"/>
       <c r="AK59" s="64"/>
       <c r="AL59" s="62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AM59" s="63"/>
       <c r="AN59" s="63"/>
@@ -20039,7 +20109,7 @@
       <c r="AP59" s="63"/>
       <c r="AQ59" s="64"/>
       <c r="AR59" s="62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AS59" s="63"/>
       <c r="AT59" s="63"/>
@@ -20207,10 +20277,6 @@
     <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="AB39:AC39"/>
     <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
     <mergeCell ref="AB45:AC45"/>
     <mergeCell ref="AD45:AE45"/>
     <mergeCell ref="AB44:AC44"/>
@@ -20237,6 +20303,10 @@
     <mergeCell ref="AD50:AE50"/>
     <mergeCell ref="AB49:AC49"/>
     <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -20336,7 +20406,7 @@
         <v>4</v>
       </c>
       <c r="AY1" s="216"/>
-      <c r="AZ1" s="285"/>
+      <c r="AZ1" s="283"/>
     </row>
     <row r="2" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="199"/>
@@ -20385,7 +20455,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -20467,7 +20537,7 @@
     </row>
     <row r="4" spans="1:52" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="255" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="251"/>
       <c r="C4" s="251"/>
@@ -20476,52 +20546,52 @@
       <c r="F4" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="283"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
-      <c r="AI4" s="283"/>
-      <c r="AJ4" s="283"/>
-      <c r="AK4" s="283"/>
-      <c r="AL4" s="283"/>
-      <c r="AM4" s="283"/>
-      <c r="AN4" s="283"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="283"/>
-      <c r="AQ4" s="283"/>
-      <c r="AR4" s="283"/>
-      <c r="AS4" s="283"/>
-      <c r="AT4" s="283"/>
-      <c r="AU4" s="283"/>
-      <c r="AV4" s="283"/>
-      <c r="AW4" s="283"/>
-      <c r="AX4" s="283"/>
-      <c r="AY4" s="283"/>
-      <c r="AZ4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="284"/>
+      <c r="N4" s="284"/>
+      <c r="O4" s="284"/>
+      <c r="P4" s="284"/>
+      <c r="Q4" s="284"/>
+      <c r="R4" s="284"/>
+      <c r="S4" s="284"/>
+      <c r="T4" s="284"/>
+      <c r="U4" s="284"/>
+      <c r="V4" s="284"/>
+      <c r="W4" s="284"/>
+      <c r="X4" s="284"/>
+      <c r="Y4" s="284"/>
+      <c r="Z4" s="284"/>
+      <c r="AA4" s="284"/>
+      <c r="AB4" s="284"/>
+      <c r="AC4" s="284"/>
+      <c r="AD4" s="284"/>
+      <c r="AE4" s="284"/>
+      <c r="AF4" s="284"/>
+      <c r="AG4" s="284"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="284"/>
+      <c r="AK4" s="284"/>
+      <c r="AL4" s="284"/>
+      <c r="AM4" s="284"/>
+      <c r="AN4" s="284"/>
+      <c r="AO4" s="284"/>
+      <c r="AP4" s="284"/>
+      <c r="AQ4" s="284"/>
+      <c r="AR4" s="284"/>
+      <c r="AS4" s="284"/>
+      <c r="AT4" s="284"/>
+      <c r="AU4" s="284"/>
+      <c r="AV4" s="284"/>
+      <c r="AW4" s="284"/>
+      <c r="AX4" s="284"/>
+      <c r="AY4" s="284"/>
+      <c r="AZ4" s="285"/>
     </row>
     <row r="5" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A5" s="117"/>
@@ -20580,7 +20650,7 @@
     <row r="6" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="117"/>
       <c r="B6" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C6" s="181"/>
       <c r="D6" s="181"/>
@@ -20637,7 +20707,7 @@
       <c r="A7" s="117"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D7" s="181"/>
       <c r="E7" s="181"/>
@@ -20854,7 +20924,7 @@
     <row r="11" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="117"/>
       <c r="B11" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C11" s="181"/>
       <c r="D11" s="181"/>
@@ -20911,10 +20981,10 @@
       <c r="A12" s="117"/>
       <c r="B12" s="12"/>
       <c r="C12" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E12" s="181"/>
       <c r="F12" s="181"/>
@@ -20974,7 +21044,7 @@
         <v>75</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G13" s="181"/>
       <c r="H13" s="181"/>
@@ -21031,15 +21101,15 @@
       <c r="E14" s="181"/>
       <c r="F14" s="181"/>
       <c r="G14" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H14" s="181"/>
       <c r="I14" s="181"/>
       <c r="J14" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -21096,10 +21166,10 @@
       <c r="H15" s="181"/>
       <c r="I15" s="181"/>
       <c r="J15" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -21201,10 +21271,10 @@
       <c r="A17" s="117"/>
       <c r="B17" s="12"/>
       <c r="C17" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E17" s="181"/>
       <c r="F17" s="181"/>
@@ -21264,7 +21334,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G18" s="181"/>
       <c r="H18" s="181"/>
@@ -21371,10 +21441,10 @@
       <c r="A20" s="117"/>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E20" s="181"/>
       <c r="F20" s="181"/>
@@ -21434,7 +21504,7 @@
         <v>75</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G21" s="181"/>
       <c r="H21" s="181"/>
@@ -21541,10 +21611,10 @@
       <c r="A23" s="117"/>
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E23" s="181"/>
       <c r="F23" s="181"/>
@@ -21604,7 +21674,7 @@
         <v>75</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G24" s="181"/>
       <c r="H24" s="181"/>
@@ -21764,7 +21834,7 @@
     <row r="27" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="117"/>
       <c r="B27" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C27" s="182"/>
       <c r="D27" s="182"/>
@@ -21824,7 +21894,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E28" s="182"/>
       <c r="F28" s="182"/>
@@ -21884,7 +21954,7 @@
         <v>75</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G29" s="182"/>
       <c r="H29" s="182"/>
@@ -21994,7 +22064,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E31" s="189"/>
       <c r="F31" s="189"/>
@@ -22054,7 +22124,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="182"/>
@@ -22214,7 +22284,7 @@
     <row r="35" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="117"/>
       <c r="B35" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C35" s="189"/>
       <c r="D35" s="181"/>
@@ -22271,7 +22341,7 @@
       <c r="A36" s="117"/>
       <c r="B36" s="12"/>
       <c r="C36" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D36" s="181"/>
       <c r="E36" s="181"/>
@@ -22434,7 +22504,7 @@
     <row r="39" spans="1:52" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="117"/>
       <c r="B39" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C39" s="181"/>
       <c r="D39" s="181"/>
@@ -22491,7 +22561,7 @@
       <c r="A40" s="117"/>
       <c r="B40" s="12"/>
       <c r="C40" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D40" s="181"/>
       <c r="E40" s="181"/>
@@ -23301,6 +23371,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:AZ4"/>
     <mergeCell ref="A3:E3"/>
@@ -23314,12 +23390,6 @@
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -23342,7 +23412,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
-      <selection pane="bottomLeft" sqref="A1:M2"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -23467,7 +23537,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -23721,7 +23791,7 @@
       <c r="A7" s="134"/>
       <c r="B7" s="135"/>
       <c r="C7" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D7" s="135" t="s">
         <v>67</v>
@@ -23813,7 +23883,7 @@
       </c>
       <c r="AL7" s="135"/>
       <c r="AM7" s="136" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN7" s="135"/>
       <c r="AO7" s="135"/>
@@ -24111,7 +24181,7 @@
       <c r="A13" s="134"/>
       <c r="B13" s="135"/>
       <c r="C13" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D13" s="135" t="s">
         <v>72</v>
@@ -24203,7 +24273,7 @@
       </c>
       <c r="AL13" s="135"/>
       <c r="AM13" s="136" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN13" s="135"/>
       <c r="AO13" s="135"/>
@@ -24277,7 +24347,7 @@
       <c r="A15" s="134"/>
       <c r="B15" s="135"/>
       <c r="C15" s="135" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D15" s="135" t="s">
         <v>69</v>
@@ -24445,7 +24515,7 @@
       <c r="A18" s="134"/>
       <c r="B18" s="135"/>
       <c r="C18" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D18" s="135" t="s">
         <v>70</v>
@@ -24537,7 +24607,7 @@
       </c>
       <c r="AL18" s="135"/>
       <c r="AM18" s="136" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN18" s="135"/>
       <c r="AO18" s="135"/>
@@ -24611,10 +24681,10 @@
       <c r="A20" s="134"/>
       <c r="B20" s="135"/>
       <c r="C20" s="135" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D20" s="135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="135"/>
       <c r="F20" s="135"/>
@@ -24723,10 +24793,10 @@
       <c r="A22" s="134"/>
       <c r="B22" s="135"/>
       <c r="C22" s="135" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D22" s="135" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E22" s="135"/>
       <c r="F22" s="135"/>
@@ -24835,10 +24905,10 @@
       <c r="A24" s="134"/>
       <c r="B24" s="135"/>
       <c r="C24" s="135" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D24" s="135" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="E24" s="135"/>
       <c r="F24" s="135"/>
@@ -24929,7 +24999,7 @@
       </c>
       <c r="AL24" s="135"/>
       <c r="AM24" s="136" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AN24" s="135"/>
       <c r="AO24" s="135"/>
@@ -25004,7 +25074,7 @@
       <c r="B26" s="135"/>
       <c r="C26" s="135"/>
       <c r="D26" s="135" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E26" s="135" t="s">
         <v>74</v>
@@ -25081,7 +25151,7 @@
       </c>
       <c r="AL26" s="135"/>
       <c r="AM26" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN26" s="135"/>
       <c r="AO26" s="135"/>
@@ -25155,10 +25225,10 @@
       <c r="A28" s="134"/>
       <c r="B28" s="135"/>
       <c r="C28" s="135" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="135" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="D28" s="310" t="s">
+        <v>269</v>
       </c>
       <c r="E28" s="135"/>
       <c r="F28" s="135"/>
@@ -25267,7 +25337,7 @@
       <c r="A30" s="134"/>
       <c r="B30" s="135"/>
       <c r="C30" s="135" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D30" s="135" t="s">
         <v>67</v>
@@ -25359,7 +25429,7 @@
       </c>
       <c r="AL30" s="135"/>
       <c r="AM30" s="136" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN30" s="135"/>
       <c r="AO30" s="135"/>
@@ -25492,7 +25562,7 @@
       <c r="D33" s="287"/>
       <c r="E33" s="288"/>
       <c r="F33" s="133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="133"/>
       <c r="H33" s="133"/>
@@ -25657,10 +25727,10 @@
       <c r="A36" s="134"/>
       <c r="B36" s="135"/>
       <c r="C36" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D36" s="135" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E36" s="135"/>
       <c r="F36" s="135"/>
@@ -25769,10 +25839,10 @@
       <c r="A38" s="134"/>
       <c r="B38" s="135"/>
       <c r="C38" s="135" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D38" s="135" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E38" s="135"/>
       <c r="F38" s="135"/>
@@ -25881,10 +25951,10 @@
       <c r="A40" s="134"/>
       <c r="B40" s="135"/>
       <c r="C40" s="135" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D40" s="135" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="E40" s="135"/>
       <c r="F40" s="135"/>
@@ -25975,7 +26045,7 @@
       </c>
       <c r="AL40" s="135"/>
       <c r="AM40" s="136" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AN40" s="135"/>
       <c r="AO40" s="135"/>
@@ -26049,10 +26119,10 @@
       <c r="A42" s="134"/>
       <c r="B42" s="135"/>
       <c r="C42" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="135" t="s">
-        <v>264</v>
+        <v>252</v>
+      </c>
+      <c r="D42" s="310" t="s">
+        <v>269</v>
       </c>
       <c r="E42" s="135"/>
       <c r="F42" s="135"/>
@@ -26161,7 +26231,7 @@
       <c r="A44" s="134"/>
       <c r="B44" s="135"/>
       <c r="C44" s="135" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D44" s="135" t="s">
         <v>67</v>
@@ -26253,7 +26323,7 @@
       </c>
       <c r="AL44" s="135"/>
       <c r="AM44" s="136" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN44" s="135"/>
       <c r="AO44" s="135"/>
@@ -26551,7 +26621,7 @@
       <c r="A50" s="134"/>
       <c r="B50" s="135"/>
       <c r="C50" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D50" s="135" t="s">
         <v>80</v>
@@ -26663,7 +26733,7 @@
       <c r="A52" s="134"/>
       <c r="B52" s="135"/>
       <c r="C52" s="135" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D52" s="135" t="s">
         <v>69</v>
@@ -26831,7 +26901,7 @@
       <c r="A55" s="134"/>
       <c r="B55" s="135"/>
       <c r="C55" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D55" s="135" t="s">
         <v>81</v>
@@ -26943,7 +27013,7 @@
       <c r="A57" s="134"/>
       <c r="B57" s="135"/>
       <c r="C57" s="135" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D57" s="135" t="s">
         <v>82</v>
@@ -27055,7 +27125,7 @@
       <c r="A59" s="134"/>
       <c r="B59" s="135"/>
       <c r="C59" s="135" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D59" s="135" t="s">
         <v>83</v>
@@ -27167,7 +27237,7 @@
       <c r="A61" s="134"/>
       <c r="B61" s="135"/>
       <c r="C61" s="135" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D61" s="135" t="s">
         <v>77</v>
@@ -27249,7 +27319,7 @@
       </c>
       <c r="AL61" s="135"/>
       <c r="AM61" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN61" s="135"/>
       <c r="AO61" s="135"/>
@@ -27547,7 +27617,7 @@
       <c r="A67" s="134"/>
       <c r="B67" s="135"/>
       <c r="C67" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D67" s="135" t="s">
         <v>69</v>
@@ -27715,7 +27785,7 @@
       <c r="A70" s="134"/>
       <c r="B70" s="135"/>
       <c r="C70" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D70" s="135" t="s">
         <v>79</v>
@@ -27797,7 +27867,7 @@
       </c>
       <c r="AL70" s="135"/>
       <c r="AM70" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN70" s="135"/>
       <c r="AO70" s="135"/>
@@ -27930,7 +28000,7 @@
       <c r="D73" s="287"/>
       <c r="E73" s="288"/>
       <c r="F73" s="133" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G73" s="133"/>
       <c r="H73" s="133"/>
@@ -28095,7 +28165,7 @@
       <c r="A76" s="134"/>
       <c r="B76" s="135"/>
       <c r="C76" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D76" s="135" t="s">
         <v>69</v>
@@ -28263,10 +28333,10 @@
       <c r="A79" s="134"/>
       <c r="B79" s="135"/>
       <c r="C79" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D79" s="135" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E79" s="135"/>
       <c r="F79" s="135"/>
@@ -28345,7 +28415,7 @@
       </c>
       <c r="AL79" s="135"/>
       <c r="AM79" s="136" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AN79" s="135"/>
       <c r="AO79" s="135"/>
@@ -28802,7 +28872,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:E4"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -28927,7 +28997,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -29016,7 +29086,7 @@
       <c r="D4" s="287"/>
       <c r="E4" s="288"/>
       <c r="F4" s="133" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G4" s="133"/>
       <c r="H4" s="133"/>
@@ -29181,7 +29251,7 @@
       <c r="A7" s="134"/>
       <c r="B7" s="135"/>
       <c r="C7" s="135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D7" s="135" t="s">
         <v>71</v>
@@ -29275,7 +29345,7 @@
       </c>
       <c r="AL7" s="135"/>
       <c r="AM7" s="136" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AN7" s="135"/>
       <c r="AO7" s="135"/>
@@ -29349,10 +29419,10 @@
       <c r="A9" s="134"/>
       <c r="B9" s="135"/>
       <c r="C9" s="135" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E9" s="135"/>
       <c r="F9" s="135"/>
@@ -29856,12 +29926,12 @@
     <mergeCell ref="AM2:AR3"/>
     <mergeCell ref="AS2:AW3"/>
     <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AS1:AW1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -29884,7 +29954,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG2" sqref="AG2:AL3"/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -30009,7 +30079,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -30091,7 +30161,7 @@
     </row>
     <row r="4" spans="1:53" ht="13.5" customHeight="1">
       <c r="A4" s="146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="122" t="s">
         <v>13</v>
@@ -30121,7 +30191,7 @@
       <c r="W4" s="148"/>
       <c r="X4" s="149"/>
       <c r="Y4" s="150" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Z4" s="151"/>
       <c r="AA4" s="151"/>
@@ -30329,7 +30399,7 @@
         <v/>
       </c>
       <c r="B8" s="50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="80"/>
@@ -30389,7 +30459,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="80"/>
@@ -30399,7 +30469,7 @@
       <c r="H9" s="80"/>
       <c r="I9" s="78"/>
       <c r="J9" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="80"/>
@@ -30409,7 +30479,7 @@
       <c r="P9" s="80"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
@@ -30453,7 +30523,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="80"/>
@@ -30463,7 +30533,7 @@
       <c r="H10" s="80"/>
       <c r="I10" s="78"/>
       <c r="J10" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
@@ -30473,7 +30543,7 @@
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S10" s="80"/>
       <c r="T10" s="80"/>
@@ -30575,7 +30645,7 @@
         <v/>
       </c>
       <c r="B12" s="50" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="80"/>
@@ -30635,7 +30705,7 @@
         <v/>
       </c>
       <c r="B13" s="50" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="80"/>
@@ -30753,7 +30823,7 @@
         <v/>
       </c>
       <c r="B15" s="50" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="80"/>
@@ -30883,7 +30953,7 @@
       <c r="H17" s="80"/>
       <c r="I17" s="78"/>
       <c r="J17" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K17" s="80"/>
       <c r="L17" s="80"/>
@@ -30893,7 +30963,7 @@
       <c r="P17" s="80"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="50" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S17" s="80"/>
       <c r="T17" s="80"/>
@@ -30947,7 +31017,7 @@
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
       <c r="J18" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
@@ -31011,7 +31081,7 @@
       <c r="H19" s="80"/>
       <c r="I19" s="78"/>
       <c r="J19" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
@@ -31075,7 +31145,7 @@
       <c r="H20" s="80"/>
       <c r="I20" s="78"/>
       <c r="J20" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
@@ -31130,7 +31200,7 @@
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
@@ -31139,7 +31209,7 @@
       <c r="H21" s="80"/>
       <c r="I21" s="78"/>
       <c r="J21" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
@@ -31149,7 +31219,7 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
       <c r="R21" s="50" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
@@ -31194,7 +31264,7 @@
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
@@ -31203,7 +31273,7 @@
       <c r="H22" s="80"/>
       <c r="I22" s="78"/>
       <c r="J22" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
@@ -31213,7 +31283,7 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="50" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
@@ -31258,7 +31328,7 @@
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
@@ -31267,7 +31337,7 @@
       <c r="H23" s="80"/>
       <c r="I23" s="78"/>
       <c r="J23" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
@@ -31277,7 +31347,7 @@
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="50" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="S23" s="51"/>
       <c r="T23" s="51"/>
@@ -31322,7 +31392,7 @@
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
@@ -31331,7 +31401,7 @@
       <c r="H24" s="80"/>
       <c r="I24" s="78"/>
       <c r="J24" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
@@ -31341,7 +31411,7 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="52"/>
       <c r="R24" s="50" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="S24" s="51"/>
       <c r="T24" s="51"/>
@@ -31395,7 +31465,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
       <c r="J25" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
@@ -31405,7 +31475,7 @@
       <c r="P25" s="51"/>
       <c r="Q25" s="52"/>
       <c r="R25" s="50" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S25" s="80"/>
       <c r="T25" s="80"/>
@@ -31413,7 +31483,9 @@
       <c r="V25" s="80"/>
       <c r="W25" s="80"/>
       <c r="X25" s="78"/>
-      <c r="Y25" s="50"/>
+      <c r="Y25" s="50" t="s">
+        <v>262</v>
+      </c>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
@@ -33293,7 +33365,7 @@
       <c r="AK2" s="220"/>
       <c r="AL2" s="220"/>
       <c r="AM2" s="259" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="219"/>
       <c r="AO2" s="219"/>
@@ -33538,11 +33610,11 @@
     <row r="7" spans="1:52" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="25"/>
       <c r="B7" s="293" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="295"/>
       <c r="D7" s="301" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="E7" s="302"/>
       <c r="F7" s="302"/>
@@ -33566,13 +33638,13 @@
       <c r="X7" s="302"/>
       <c r="Y7" s="303"/>
       <c r="Z7" s="293" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA7" s="294"/>
       <c r="AB7" s="294"/>
       <c r="AC7" s="295"/>
       <c r="AD7" s="293" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE7" s="294"/>
       <c r="AF7" s="294"/>
@@ -33658,7 +33730,7 @@
       </c>
       <c r="C9" s="300"/>
       <c r="D9" s="296" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E9" s="297"/>
       <c r="F9" s="297"/>
@@ -33682,13 +33754,13 @@
       <c r="X9" s="297"/>
       <c r="Y9" s="298"/>
       <c r="Z9" s="296" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AA9" s="297"/>
       <c r="AB9" s="297"/>
       <c r="AC9" s="298"/>
       <c r="AD9" s="296" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AE9" s="297"/>
       <c r="AF9" s="297"/>
